--- a/PackAccountReassignAcceptReject.xlsx
+++ b/PackAccountReassignAcceptReject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7540AA91-2AC1-46AB-B7A2-9E9E64F4603E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D28FE-355C-4D6C-B78B-5EBB638BABBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PackAccountReassignAcceptReject.xlsx
+++ b/PackAccountReassignAcceptReject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D28FE-355C-4D6C-B78B-5EBB638BABBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A070CE-2F1F-4529-81E9-3B1ABD937196}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,13 +229,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -612,7 +606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -623,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -634,7 +628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -645,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>25</v>
       </c>
@@ -656,7 +650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -667,7 +661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -678,7 +672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>33</v>
       </c>
@@ -712,7 +706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>16</v>
       </c>
@@ -723,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>19</v>
       </c>
@@ -734,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>22</v>
       </c>
@@ -745,7 +739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>25</v>
       </c>
@@ -756,7 +750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>28</v>
       </c>
@@ -767,7 +761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>31</v>
       </c>
@@ -778,7 +772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>33</v>
       </c>
